--- a/src/main/resources/substituttlister/V18_sykler.xlsx
+++ b/src/main/resources/substituttlister/V18_sykler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhanhtuantran/dev/navikt/hm/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA65045-7EEE-F041-930C-F5A53FA7F980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC4DC1-072E-EB47-8640-12460A9E7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="39800" windowHeight="19920" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
+    <workbookView xWindow="520" yWindow="760" windowWidth="39800" windowHeight="16720" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2283,7 +2283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3485A8-7267-48FD-BE99-693AE922852B}">
   <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2791,7 @@
         <v>133</v>
       </c>
       <c r="D18" s="24">
-        <v>266313</v>
+        <v>266314</v>
       </c>
       <c r="G18" s="29"/>
     </row>
